--- a/data_output/prism_passive/all_passive_out_norm_licht_fas_length_GM_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_licht_fas_length_GM_submax_2.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>13.833319838364725</v>
+        <v>13.833319841943565</v>
       </c>
       <c r="C2">
-        <v>15.504356897391242</v>
+        <v>15.504356893372323</v>
       </c>
       <c r="D2">
-        <v>14.82868883845021</v>
+        <v>14.828688828039823</v>
       </c>
       <c r="E2">
-        <v>16.551910950793122</v>
+        <v>16.551910946108173</v>
       </c>
       <c r="F2">
-        <v>10.796950926360585</v>
+        <v>10.796950923477002</v>
       </c>
       <c r="G2">
-        <v>13.269780597527372</v>
+        <v>13.269780595641725</v>
       </c>
       <c r="H2">
-        <v>11.041170736990429</v>
+        <v>11.041170732368293</v>
       </c>
       <c r="I2">
-        <v>12.20881167154452</v>
+        <v>12.20881167141879</v>
       </c>
       <c r="J2">
-        <v>16.214735020076869</v>
+        <v>16.214735010036065</v>
       </c>
       <c r="K2">
-        <v>12.516738156617338</v>
+        <v>12.516738154062383</v>
       </c>
       <c r="L2">
-        <v>12.113276442092397</v>
+        <v>12.113276436852944</v>
       </c>
       <c r="M2">
-        <v>13.745399716314887</v>
+        <v>13.745399716996449</v>
       </c>
       <c r="N2">
-        <v>13.033286987398565</v>
+        <v>13.033286985094387</v>
       </c>
       <c r="O2">
-        <v>11.851118310220054</v>
+        <v>11.851118303041785</v>
       </c>
       <c r="P2">
-        <v>14.069715774088479</v>
+        <v>14.069715775583985</v>
       </c>
       <c r="Q2">
-        <v>12.737139555319892</v>
+        <v>12.737139551513179</v>
       </c>
       <c r="R2">
-        <v>11.371378558115557</v>
+        <v>11.371378553419259</v>
       </c>
       <c r="S2">
-        <v>17.138990508867753</v>
+        <v>17.138990509391057</v>
       </c>
       <c r="T2">
-        <v>13.140062812858796</v>
+        <v>13.140062816685209</v>
       </c>
       <c r="U2">
-        <v>14.794292619978339</v>
+        <v>14.794292614575486</v>
       </c>
       <c r="V2">
-        <v>10.605129216652845</v>
+        <v>10.605129214465462</v>
       </c>
       <c r="W2">
-        <v>9.9994064317077012</v>
+        <v>9.9994064237192504</v>
       </c>
       <c r="X2">
-        <v>14.255747861540302</v>
+        <v>14.255747856636386</v>
       </c>
       <c r="Y2">
-        <v>15.134634879873211</v>
+        <v>15.134634874242902</v>
       </c>
       <c r="Z2">
-        <v>14.773177342128236</v>
+        <v>14.773177338461432</v>
       </c>
       <c r="AA2">
-        <v>16.60985976194052</v>
+        <v>16.609859732248765</v>
       </c>
       <c r="AB2">
-        <v>18.260995702408895</v>
+        <v>18.260995690658124</v>
       </c>
       <c r="AC2">
-        <v>13.664441496191687</v>
+        <v>13.664441486910048</v>
       </c>
       <c r="AD2">
-        <v>18.227717974651974</v>
+        <v>18.227717961492722</v>
       </c>
       <c r="AE2">
-        <v>12.676517913047059</v>
+        <v>12.676517911743762</v>
       </c>
       <c r="AF2">
-        <v>13.95351202168932</v>
+        <v>13.953512015106536</v>
       </c>
       <c r="AG2">
-        <v>11.934100564618655</v>
+        <v>11.934100550362919</v>
       </c>
       <c r="AH2">
-        <v>12.773380587166445</v>
+        <v>12.773380581963881</v>
       </c>
       <c r="AI2">
-        <v>18.59041155037869</v>
+        <v>18.590411534337292</v>
       </c>
       <c r="AJ2">
-        <v>12.853178762154533</v>
+        <v>12.853178752917108</v>
       </c>
       <c r="AK2">
-        <v>13.198422218437555</v>
+        <v>13.198422213559425</v>
       </c>
       <c r="AL2">
-        <v>14.788240110591696</v>
+        <v>14.788240103785025</v>
       </c>
       <c r="AM2">
-        <v>13.348431711998881</v>
+        <v>13.348431705634853</v>
       </c>
       <c r="AN2">
-        <v>12.782451318804549</v>
+        <v>12.782451313437109</v>
       </c>
       <c r="AO2">
-        <v>15.89407690009498</v>
+        <v>15.894076885782605</v>
       </c>
       <c r="AP2">
-        <v>13.513652337306773</v>
+        <v>13.513652331756784</v>
       </c>
       <c r="AQ2">
-        <v>11.910234125497727</v>
+        <v>11.910234114733127</v>
       </c>
       <c r="AR2">
-        <v>17.012176701580728</v>
+        <v>17.012176699256546</v>
       </c>
       <c r="AS2">
-        <v>14.525727051159132</v>
+        <v>14.525727035716951</v>
       </c>
       <c r="AT2">
-        <v>16.673912141952162</v>
+        <v>16.673912135505457</v>
       </c>
       <c r="AU2">
-        <v>11.887916044134093</v>
+        <v>11.887916043368643</v>
       </c>
       <c r="AV2">
-        <v>12.680996912170034</v>
+        <v>12.680996889945989</v>
       </c>
       <c r="AW2">
-        <v>14.213028222832788</v>
+        <v>14.213028218752097</v>
       </c>
       <c r="AX2">
-        <v>17.180127783793171</v>
+        <v>17.180127775418473</v>
       </c>
       <c r="AY2">
-        <v>16.736817710573952</v>
+        <v>16.736817704065807</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>14.821969559334969</v>
+        <v>14.821969554288888</v>
       </c>
       <c r="C3">
-        <v>14.137509953081715</v>
+        <v>14.13750994872338</v>
       </c>
       <c r="D3">
-        <v>15.676411439139649</v>
+        <v>15.676411432271381</v>
       </c>
       <c r="E3">
-        <v>15.017890247034815</v>
+        <v>15.017890247059132</v>
       </c>
       <c r="F3">
-        <v>10.630104471171776</v>
+        <v>10.630104464720201</v>
       </c>
       <c r="G3">
-        <v>14.302233345448343</v>
+        <v>14.302233341505813</v>
       </c>
       <c r="H3">
-        <v>10.284833738907043</v>
+        <v>10.284833735850189</v>
       </c>
       <c r="I3">
-        <v>12.753857290151133</v>
+        <v>12.753857287818155</v>
       </c>
       <c r="J3">
-        <v>16.849136254399788</v>
+        <v>16.84913624535643</v>
       </c>
       <c r="K3">
-        <v>14.60136128320354</v>
+        <v>14.60136127848336</v>
       </c>
       <c r="L3">
-        <v>12.696559617333941</v>
+        <v>12.696559611584343</v>
       </c>
       <c r="M3">
-        <v>14.259407899859541</v>
+        <v>14.259414905364407</v>
       </c>
       <c r="N3">
-        <v>12.930522176984288</v>
+        <v>12.930522173316671</v>
       </c>
       <c r="O3">
-        <v>9.6364658106386685</v>
+        <v>9.6364658063830912</v>
       </c>
       <c r="P3">
-        <v>14.543000393053449</v>
+        <v>14.543000386766625</v>
       </c>
       <c r="Q3">
-        <v>11.028598631972224</v>
+        <v>11.028598627649458</v>
       </c>
       <c r="R3">
-        <v>10.020953524628966</v>
+        <v>10.020953517009765</v>
       </c>
       <c r="S3">
-        <v>15.347820483304162</v>
+        <v>15.347820482325716</v>
       </c>
       <c r="T3">
-        <v>13.300313361521052</v>
+        <v>13.300313357874197</v>
       </c>
       <c r="U3">
-        <v>15.717854472589273</v>
+        <v>15.717854470681694</v>
       </c>
       <c r="V3">
-        <v>11.638869203813403</v>
+        <v>11.638869200784567</v>
       </c>
       <c r="W3">
-        <v>10.949140952933881</v>
+        <v>10.949140944737584</v>
       </c>
       <c r="X3">
-        <v>12.726067488029113</v>
+        <v>12.726067483955017</v>
       </c>
       <c r="Y3">
-        <v>17.385769428725265</v>
+        <v>17.385769421232212</v>
       </c>
       <c r="Z3">
-        <v>15.680001881938004</v>
+        <v>15.680001878457045</v>
       </c>
       <c r="AA3">
-        <v>16.447061322107722</v>
+        <v>16.447061323593857</v>
       </c>
       <c r="AB3">
-        <v>16.186188936870671</v>
+        <v>16.186188927736097</v>
       </c>
       <c r="AC3">
-        <v>16.087981523006782</v>
+        <v>16.087981522650143</v>
       </c>
       <c r="AD3">
-        <v>18.043223399692788</v>
+        <v>18.043223386152114</v>
       </c>
       <c r="AE3">
-        <v>13.240782544567828</v>
+        <v>13.240782540762455</v>
       </c>
       <c r="AF3">
-        <v>15.190177359727336</v>
+        <v>15.190177352219941</v>
       </c>
       <c r="AG3">
-        <v>12.71309857574845</v>
+        <v>12.713098574886978</v>
       </c>
       <c r="AH3">
-        <v>14.466062492494872</v>
+        <v>14.466062480001723</v>
       </c>
       <c r="AI3">
-        <v>21.724625867407589</v>
+        <v>21.724625844699506</v>
       </c>
       <c r="AJ3">
-        <v>14.409635986348846</v>
+        <v>14.409635980181934</v>
       </c>
       <c r="AK3">
-        <v>14.670136177133031</v>
+        <v>14.670136173423037</v>
       </c>
       <c r="AL3">
-        <v>14.815908737245865</v>
+        <v>14.815908732346319</v>
       </c>
       <c r="AM3">
-        <v>14.630921419159904</v>
+        <v>14.630921403483496</v>
       </c>
       <c r="AN3">
-        <v>11.596380094472876</v>
+        <v>11.596380086020396</v>
       </c>
       <c r="AO3">
-        <v>16.522052983788925</v>
+        <v>16.522052975610833</v>
       </c>
       <c r="AP3">
-        <v>11.381595200810267</v>
+        <v>11.381595192830696</v>
       </c>
       <c r="AQ3">
-        <v>11.28795650842256</v>
+        <v>11.287956502242762</v>
       </c>
       <c r="AR3">
-        <v>17.728260905551963</v>
+        <v>17.728260904203687</v>
       </c>
       <c r="AS3">
-        <v>13.207346504025622</v>
+        <v>13.207346489688049</v>
       </c>
       <c r="AT3">
-        <v>16.382844461502248</v>
+        <v>16.382844447663278</v>
       </c>
       <c r="AU3">
-        <v>11.911220231748404</v>
+        <v>11.911220225485541</v>
       </c>
       <c r="AV3">
-        <v>11.595571786232053</v>
+        <v>11.595571766382802</v>
       </c>
       <c r="AW3">
-        <v>14.373364892245938</v>
+        <v>14.373364876540625</v>
       </c>
       <c r="AX3">
-        <v>15.953333706978393</v>
+        <v>15.953333694000271</v>
       </c>
       <c r="AY3">
-        <v>18.135995664690384</v>
+        <v>18.135995661529076</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_norm_licht_fas_length_GM_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_licht_fas_length_GM_submax_2.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,62 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>13.833319841943565</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>15.504356893372323</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>14.828688828039823</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>16.551910946108173</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>10.796950923477002</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>13.269780595641725</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>11.041170732368293</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>12.20881167141879</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>16.214735010036065</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>12.516738154062383</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>12.113276436852944</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>13.745399716996449</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>13.033286985094387</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>11.851118303041785</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>14.069715775583985</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>12.737139551513179</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>11.371378553419259</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>17.138990509391057</v>
+        <v>15.694675851293137</v>
       </c>
       <c r="T2">
         <v>13.140062816685209</v>
@@ -588,55 +477,55 @@
         <v>14.773177338461432</v>
       </c>
       <c r="AA2">
-        <v>16.609859732248765</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>18.260995690658124</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>13.664441486910048</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>18.227717961492722</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>12.676517911743762</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>13.953512015106536</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>11.934100550362919</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>12.773380581963881</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>18.590411534337292</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>12.853178752917108</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>13.198422213559425</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>14.788240103785025</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>13.348431705634853</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>12.782451313437109</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>15.894076885782605</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>13.513652331756784</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>11.910234114733127</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>17.012176699256546</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>14.821969554288888</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>14.13750994872338</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>15.676411432271381</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>15.017890247059132</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>10.630104464720201</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>14.302233341505813</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>10.284833735850189</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>12.753857287818155</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>16.84913624535643</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>14.60136127848336</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>12.696559611584343</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>14.259414905364407</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>12.930522173316671</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>9.6364658063830912</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>14.543000386766625</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>11.028598627649458</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>10.020953517009765</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>15.347820482325716</v>
@@ -743,55 +629,55 @@
         <v>15.680001878457045</v>
       </c>
       <c r="AA3">
-        <v>16.447061323593857</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>16.186188927736097</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>16.087981522650143</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>18.043223386152114</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>13.240782540762455</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>15.190177352219941</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>12.713098574886978</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>14.466062480001723</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>21.724625844699506</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>14.409635980181934</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>14.670136173423037</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>14.815908732346319</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>14.630921403483496</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>11.596380086020396</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>16.522052975610833</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>11.381595192830696</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>11.287956502242762</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>17.728260904203687</v>

--- a/data_output/prism_passive/all_passive_out_norm_licht_fas_length_GM_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_licht_fas_length_GM_submax_2.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>13.833319838364725</v>
+        <v>11.851118303041785</v>
       </c>
       <c r="C2">
-        <v>14.977735273363409</v>
+        <v>11.371378553419259</v>
       </c>
       <c r="D2">
-        <v>14.82868883845021</v>
+        <v>12.782451313437109</v>
       </c>
       <c r="E2">
-        <v>16.551910950793122</v>
+        <v>11.910234114733127</v>
       </c>
       <c r="F2">
         <v>10.796950926360585</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>14.821969559334969</v>
+        <v>10.883366192557336</v>
       </c>
       <c r="C3">
-        <v>14.137509953081715</v>
+        <v>10.020953517009765</v>
       </c>
       <c r="D3">
-        <v>15.676411439139649</v>
+        <v>11.881610585812835</v>
       </c>
       <c r="E3">
-        <v>15.017890247034815</v>
+        <v>11.399252102828305</v>
       </c>
       <c r="F3">
         <v>10.630104471171776</v>

--- a/data_output/prism_passive/all_passive_out_norm_licht_fas_length_GM_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_licht_fas_length_GM_submax_2.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>13.833319838364725</v>
+        <v>12.868937944505966</v>
       </c>
       <c r="C2">
-        <v>14.977735273363409</v>
+        <v>11.851118303041785</v>
       </c>
       <c r="D2">
-        <v>14.82868883845021</v>
+        <v>13.348431705634853</v>
       </c>
       <c r="E2">
-        <v>16.551910950793122</v>
+        <v>12.782451313437109</v>
       </c>
       <c r="F2">
         <v>10.796950926360585</v>
@@ -670,16 +665,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>14.821969559334969</v>
+        <v>12.930522173316671</v>
       </c>
       <c r="C3">
-        <v>14.137509953081715</v>
+        <v>10.883366192557336</v>
       </c>
       <c r="D3">
-        <v>15.676411439139649</v>
+        <v>14.630921403483496</v>
       </c>
       <c r="E3">
-        <v>16.312007513647572</v>
+        <v>11.881610585812835</v>
       </c>
       <c r="F3">
         <v>10.630104471171776</v>

--- a/data_output/prism_passive/all_passive_out_norm_licht_fas_length_GM_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_licht_fas_length_GM_submax_2.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,151 +513,151 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>13.833319841943565</v>
+      </c>
+      <c r="C2">
+        <v>14.977735269378096</v>
+      </c>
+      <c r="D2">
+        <v>14.828688828039823</v>
+      </c>
+      <c r="E2">
+        <v>16.551910946108173</v>
+      </c>
+      <c r="F2">
+        <v>10.796950923477002</v>
+      </c>
+      <c r="G2">
+        <v>14.0382063376435</v>
+      </c>
+      <c r="H2">
+        <v>11.041170732368293</v>
+      </c>
+      <c r="I2">
+        <v>12.958197950440088</v>
+      </c>
+      <c r="J2">
+        <v>16.214735010036065</v>
+      </c>
+      <c r="K2">
+        <v>12.516738154062383</v>
+      </c>
+      <c r="L2">
+        <v>12.339857226226911</v>
+      </c>
+      <c r="M2">
+        <v>15.136095109546622</v>
+      </c>
+      <c r="N2">
         <v>12.868937944505966</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>11.851118303041785</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>14.391601383578573</v>
+      </c>
+      <c r="Q2">
+        <v>12.737139551513179</v>
+      </c>
+      <c r="R2">
+        <v>11.371378553419259</v>
+      </c>
+      <c r="T2">
+        <v>12.49544745370895</v>
+      </c>
+      <c r="U2">
+        <v>14.794292614575486</v>
+      </c>
+      <c r="V2">
+        <v>11.156386361059488</v>
+      </c>
+      <c r="W2">
+        <v>9.9994064237192504</v>
+      </c>
+      <c r="X2">
+        <v>14.255747856636386</v>
+      </c>
+      <c r="Y2">
+        <v>15.134634874242902</v>
+      </c>
+      <c r="Z2">
+        <v>14.773177338461432</v>
+      </c>
+      <c r="AA2">
+        <v>16.609859732248765</v>
+      </c>
+      <c r="AB2">
+        <v>18.260995690658124</v>
+      </c>
+      <c r="AC2">
+        <v>13.664441486910048</v>
+      </c>
+      <c r="AD2">
+        <v>18.227717961492722</v>
+      </c>
+      <c r="AE2">
+        <v>12.676517911743762</v>
+      </c>
+      <c r="AF2">
+        <v>13.953512015106536</v>
+      </c>
+      <c r="AG2">
+        <v>11.934100550362919</v>
+      </c>
+      <c r="AH2">
+        <v>12.773380581963881</v>
+      </c>
+      <c r="AI2">
+        <v>18.590411534337292</v>
+      </c>
+      <c r="AJ2">
+        <v>12.853178752917108</v>
+      </c>
+      <c r="AK2">
+        <v>13.198422213559425</v>
+      </c>
+      <c r="AL2">
+        <v>14.788240103785025</v>
+      </c>
+      <c r="AM2">
         <v>13.348431705634853</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>12.782451313437109</v>
       </c>
-      <c r="F2">
-        <v>10.796950926360585</v>
-      </c>
-      <c r="G2">
-        <v>14.038206337625716</v>
-      </c>
-      <c r="H2">
-        <v>11.041170736990429</v>
-      </c>
-      <c r="I2">
-        <v>12.958197948028813</v>
-      </c>
-      <c r="J2">
-        <v>16.214735020076869</v>
-      </c>
-      <c r="K2">
-        <v>12.516738156617338</v>
-      </c>
-      <c r="L2">
-        <v>12.339857234545288</v>
-      </c>
-      <c r="M2">
-        <v>15.136095108111133</v>
-      </c>
-      <c r="N2">
-        <v>12.868937948705222</v>
-      </c>
-      <c r="O2">
-        <v>11.851118310220054</v>
-      </c>
-      <c r="P2">
-        <v>14.391601384183156</v>
-      </c>
-      <c r="Q2">
-        <v>12.737139555319892</v>
-      </c>
-      <c r="R2">
-        <v>11.371378558115557</v>
-      </c>
-      <c r="T2">
-        <v>12.495447451048429</v>
-      </c>
-      <c r="U2">
-        <v>14.794292619978339</v>
-      </c>
-      <c r="V2">
-        <v>11.156386364893454</v>
-      </c>
-      <c r="W2">
-        <v>9.9994064317077012</v>
-      </c>
-      <c r="X2">
-        <v>14.255747861540302</v>
-      </c>
-      <c r="Y2">
-        <v>15.134634879873211</v>
-      </c>
-      <c r="Z2">
-        <v>14.773177342128236</v>
-      </c>
-      <c r="AA2">
-        <v>16.60985976194052</v>
-      </c>
-      <c r="AB2">
-        <v>18.260995702408895</v>
-      </c>
-      <c r="AC2">
-        <v>13.664441496191687</v>
-      </c>
-      <c r="AD2">
-        <v>18.227717974651974</v>
-      </c>
-      <c r="AE2">
-        <v>12.676517913047059</v>
-      </c>
-      <c r="AF2">
-        <v>13.95351202168932</v>
-      </c>
-      <c r="AG2">
-        <v>11.934100564618655</v>
-      </c>
-      <c r="AH2">
-        <v>12.773380587166445</v>
-      </c>
-      <c r="AI2">
-        <v>18.59041155037869</v>
-      </c>
-      <c r="AJ2">
-        <v>12.853178762154533</v>
-      </c>
-      <c r="AK2">
-        <v>13.198422218437555</v>
-      </c>
-      <c r="AL2">
-        <v>14.788240110591696</v>
-      </c>
-      <c r="AM2">
-        <v>13.348431711998881</v>
-      </c>
-      <c r="AN2">
-        <v>12.782451318804549</v>
-      </c>
       <c r="AO2">
-        <v>15.89407690009498</v>
+        <v>15.894076885782605</v>
       </c>
       <c r="AP2">
-        <v>13.910590156666055</v>
+        <v>13.910590151833802</v>
       </c>
       <c r="AQ2">
-        <v>11.910234125497727</v>
+        <v>11.910234114733127</v>
       </c>
       <c r="AR2">
-        <v>17.012176701580728</v>
+        <v>17.012176699256546</v>
       </c>
       <c r="AS2">
-        <v>14.525727051159132</v>
+        <v>14.525727035716951</v>
       </c>
       <c r="AT2">
-        <v>16.673912141952162</v>
+        <v>16.673912135505457</v>
       </c>
       <c r="AU2">
-        <v>10.812814501954655</v>
+        <v>10.812814498310301</v>
       </c>
       <c r="AV2">
-        <v>12.680996912170034</v>
+        <v>12.680996889945989</v>
       </c>
       <c r="AW2">
-        <v>14.213028222832788</v>
+        <v>14.213028218752097</v>
       </c>
       <c r="AX2">
-        <v>17.180127783793171</v>
+        <v>17.180127775418473</v>
       </c>
       <c r="AY2">
-        <v>16.736817710573952</v>
+        <v>16.736817704065807</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -665,154 +665,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>14.821969554288888</v>
+      </c>
+      <c r="C3">
+        <v>14.13750994872338</v>
+      </c>
+      <c r="D3">
+        <v>15.676411432271381</v>
+      </c>
+      <c r="E3">
+        <v>16.312007513771569</v>
+      </c>
+      <c r="F3">
+        <v>10.630104464720201</v>
+      </c>
+      <c r="G3">
+        <v>14.302233341505813</v>
+      </c>
+      <c r="H3">
+        <v>10.284833735850189</v>
+      </c>
+      <c r="I3">
+        <v>12.753857287818155</v>
+      </c>
+      <c r="J3">
+        <v>16.84913624535643</v>
+      </c>
+      <c r="K3">
+        <v>14.363199749718486</v>
+      </c>
+      <c r="L3">
+        <v>12.696559611584343</v>
+      </c>
+      <c r="M3">
+        <v>13.467929261449902</v>
+      </c>
+      <c r="N3">
         <v>12.930522173316671</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>10.883366192557336</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>14.543000386766625</v>
+      </c>
+      <c r="Q3">
+        <v>11.028598627649458</v>
+      </c>
+      <c r="R3">
+        <v>10.020953517009765</v>
+      </c>
+      <c r="S3">
+        <v>15.347820482325716</v>
+      </c>
+      <c r="T3">
+        <v>13.300313357874197</v>
+      </c>
+      <c r="U3">
+        <v>15.717854470681694</v>
+      </c>
+      <c r="V3">
+        <v>11.953745362138456</v>
+      </c>
+      <c r="W3">
+        <v>10.949140944737584</v>
+      </c>
+      <c r="X3">
+        <v>12.726067483955017</v>
+      </c>
+      <c r="Y3">
+        <v>17.385769421232212</v>
+      </c>
+      <c r="Z3">
+        <v>15.680001878457045</v>
+      </c>
+      <c r="AA3">
+        <v>16.447061323593857</v>
+      </c>
+      <c r="AB3">
+        <v>16.186188927736097</v>
+      </c>
+      <c r="AC3">
+        <v>16.087981522650143</v>
+      </c>
+      <c r="AD3">
+        <v>18.043223386152114</v>
+      </c>
+      <c r="AE3">
+        <v>13.240782540762455</v>
+      </c>
+      <c r="AF3">
+        <v>15.190177352219941</v>
+      </c>
+      <c r="AG3">
+        <v>12.713098574886978</v>
+      </c>
+      <c r="AH3">
+        <v>14.466062480001723</v>
+      </c>
+      <c r="AI3">
+        <v>16.937754554755603</v>
+      </c>
+      <c r="AJ3">
+        <v>14.409635980181934</v>
+      </c>
+      <c r="AK3">
+        <v>14.670136173423037</v>
+      </c>
+      <c r="AL3">
+        <v>14.815908732346319</v>
+      </c>
+      <c r="AM3">
         <v>14.630921403483496</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>11.881610585812835</v>
       </c>
-      <c r="F3">
-        <v>10.630104471171776</v>
-      </c>
-      <c r="G3">
-        <v>14.302233345448343</v>
-      </c>
-      <c r="H3">
-        <v>10.284833738907043</v>
-      </c>
-      <c r="I3">
-        <v>12.753857290151133</v>
-      </c>
-      <c r="J3">
-        <v>16.849136254399788</v>
-      </c>
-      <c r="K3">
-        <v>14.363199755839325</v>
-      </c>
-      <c r="L3">
-        <v>12.696559617333941</v>
-      </c>
-      <c r="M3">
-        <v>13.46792493642474</v>
-      </c>
-      <c r="N3">
-        <v>12.930522176984288</v>
-      </c>
-      <c r="O3">
-        <v>10.883366202022867</v>
-      </c>
-      <c r="P3">
-        <v>14.543000393053449</v>
-      </c>
-      <c r="Q3">
-        <v>11.028598631972224</v>
-      </c>
-      <c r="R3">
-        <v>10.020953524628966</v>
-      </c>
-      <c r="S3">
-        <v>15.347820483304162</v>
-      </c>
-      <c r="T3">
-        <v>13.300313361521052</v>
-      </c>
-      <c r="U3">
-        <v>15.717854472589273</v>
-      </c>
-      <c r="V3">
-        <v>11.95374536332138</v>
-      </c>
-      <c r="W3">
-        <v>10.949140952933881</v>
-      </c>
-      <c r="X3">
-        <v>12.726067488029113</v>
-      </c>
-      <c r="Y3">
-        <v>17.385769428725265</v>
-      </c>
-      <c r="Z3">
-        <v>15.680001881938004</v>
-      </c>
-      <c r="AA3">
-        <v>16.447061322107722</v>
-      </c>
-      <c r="AB3">
-        <v>16.186188936870671</v>
-      </c>
-      <c r="AC3">
-        <v>16.087981523006782</v>
-      </c>
-      <c r="AD3">
-        <v>18.043223399692788</v>
-      </c>
-      <c r="AE3">
-        <v>13.240782544567828</v>
-      </c>
-      <c r="AF3">
-        <v>15.190177359727336</v>
-      </c>
-      <c r="AG3">
-        <v>12.71309857574845</v>
-      </c>
-      <c r="AH3">
-        <v>14.466062492494872</v>
-      </c>
-      <c r="AI3">
-        <v>16.937754571527037</v>
-      </c>
-      <c r="AJ3">
-        <v>14.409635986348846</v>
-      </c>
-      <c r="AK3">
-        <v>14.670136177133031</v>
-      </c>
-      <c r="AL3">
-        <v>14.815908737245865</v>
-      </c>
-      <c r="AM3">
-        <v>14.630921419159904</v>
-      </c>
-      <c r="AN3">
-        <v>11.881610595890276</v>
-      </c>
       <c r="AO3">
-        <v>16.522052983788925</v>
+        <v>16.522052975610833</v>
       </c>
       <c r="AP3">
-        <v>11.381595200810267</v>
+        <v>11.381595192830696</v>
       </c>
       <c r="AQ3">
-        <v>11.399252105134833</v>
+        <v>11.399252102828305</v>
       </c>
       <c r="AR3">
-        <v>17.728260905551963</v>
+        <v>17.728260904203687</v>
       </c>
       <c r="AS3">
-        <v>13.207346504025622</v>
+        <v>13.207346489688049</v>
       </c>
       <c r="AT3">
-        <v>16.382844461502248</v>
+        <v>16.382844447663278</v>
       </c>
       <c r="AU3">
-        <v>12.107984001157368</v>
+        <v>12.107984000837664</v>
       </c>
       <c r="AV3">
-        <v>11.595571786232053</v>
+        <v>11.595571766382802</v>
       </c>
       <c r="AW3">
-        <v>14.373364892245938</v>
+        <v>14.373364876540625</v>
       </c>
       <c r="AX3">
-        <v>15.953333706978393</v>
+        <v>15.953333694000271</v>
       </c>
       <c r="AY3">
-        <v>18.135995664690384</v>
+        <v>18.135995661529076</v>
       </c>
     </row>
   </sheetData>
